--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_145__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_145__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>14.94411754608154</c:v>
+                  <c:v>14.94412231445312</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.86490631103516</c:v>
@@ -6008,7 +6008,7 @@
                   <c:v>46.41468811035156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.53485870361328</c:v>
+                  <c:v>71.53485107421875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>69.65934753417969</c:v>
@@ -6017,7 +6017,7 @@
                   <c:v>42.78037261962891</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.32531356811523</c:v>
+                  <c:v>29.32530975341797</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>73.65841674804688</c:v>
@@ -6047,19 +6047,19 @@
                   <c:v>77.01363372802734</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.69729614257812</c:v>
+                  <c:v>67.69730377197266</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>77.00621032714844</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.01040649414062</c:v>
+                  <c:v>42.01041412353516</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>69.77880859375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.05253601074219</c:v>
+                  <c:v>95.05252838134766</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>62.48728179931641</c:v>
@@ -6077,10 +6077,10 @@
                   <c:v>69.96381378173828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.79356384277344</c:v>
+                  <c:v>92.79357147216797</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.57637023925781</c:v>
+                  <c:v>72.57636260986328</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>75.71499633789062</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>85.07662200927734</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.65957641601562</c:v>
+                  <c:v>35.65956878662109</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>59.48214721679688</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>84.12837982177734</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70.32269287109375</c:v>
+                  <c:v>70.32270050048828</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48.77707672119141</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>53.09815216064453</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>75.00154113769531</c:v>
+                  <c:v>75.00153350830078</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>73.03999328613281</c:v>
@@ -6140,19 +6140,19 @@
                   <c:v>81.80517578125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>77.99667358398438</c:v>
+                  <c:v>77.99666595458984</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40.48710632324219</c:v>
+                  <c:v>40.48709869384766</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>86.68573760986328</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35.32360076904297</c:v>
+                  <c:v>35.3235969543457</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>78.66349029541016</c:v>
+                  <c:v>78.66349792480469</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>75.02300262451172</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>69.48561096191406</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>69.93659973144531</c:v>
+                  <c:v>69.93660736083984</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>98.05726623535156</c:v>
@@ -6188,10 +6188,10 @@
                   <c:v>48.84757232666016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>59.65572357177734</c:v>
+                  <c:v>59.65571594238281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>77.04634857177734</c:v>
+                  <c:v>77.04634094238281</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>82.06901550292969</c:v>
@@ -6203,10 +6203,10 @@
                   <c:v>47.41183471679688</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26.10885429382324</c:v>
+                  <c:v>26.10885238647461</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44.07515716552734</c:v>
+                  <c:v>44.07516479492188</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>73.82115173339844</c:v>
@@ -6236,7 +6236,7 @@
                   <c:v>74.27336120605469</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>59.03687286376953</c:v>
+                  <c:v>59.03688049316406</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>86.24527740478516</c:v>
@@ -6245,7 +6245,7 @@
                   <c:v>49.73170471191406</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>72.43978881835938</c:v>
+                  <c:v>72.43978118896484</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>78.48537445068359</c:v>
@@ -6278,10 +6278,10 @@
                   <c:v>66.99344635009766</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79.80027770996094</c:v>
+                  <c:v>79.80028533935547</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>75.92304992675781</c:v>
+                  <c:v>75.92304229736328</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>71.40313720703125</c:v>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>14.94411754608154</v>
+        <v>14.94412231445312</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>40.1812</v>
       </c>
       <c r="F9">
-        <v>71.53485870361328</v>
+        <v>71.53485107421875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>29.32531356811523</v>
+        <v>29.32530975341797</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>75.0883</v>
       </c>
       <c r="F22">
-        <v>67.69729614257812</v>
+        <v>67.69730377197266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>28.8436</v>
       </c>
       <c r="F24">
-        <v>42.01040649414062</v>
+        <v>42.01041412353516</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>95.05253601074219</v>
+        <v>95.05252838134766</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.22920000000001</v>
       </c>
       <c r="F32">
-        <v>92.79356384277344</v>
+        <v>92.79357147216797</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>75.6955</v>
       </c>
       <c r="F33">
-        <v>72.57637023925781</v>
+        <v>72.57636260986328</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>30.7279</v>
       </c>
       <c r="F43">
-        <v>35.65957641601562</v>
+        <v>35.65956878662109</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>59.3867</v>
       </c>
       <c r="F46">
-        <v>70.32269287109375</v>
+        <v>70.32270050048828</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>84.40649999999999</v>
       </c>
       <c r="F49">
-        <v>75.00154113769531</v>
+        <v>75.00153350830078</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>78.4419</v>
       </c>
       <c r="F53">
-        <v>77.99667358398438</v>
+        <v>77.99666595458984</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>42.721</v>
       </c>
       <c r="F54">
-        <v>40.48710632324219</v>
+        <v>40.48709869384766</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>41.0705</v>
       </c>
       <c r="F56">
-        <v>35.32360076904297</v>
+        <v>35.3235969543457</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>83.2594</v>
       </c>
       <c r="F57">
-        <v>78.66349029541016</v>
+        <v>78.66349792480469</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>57.192</v>
       </c>
       <c r="F60">
-        <v>69.93659973144531</v>
+        <v>69.93660736083984</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>45.9424</v>
       </c>
       <c r="F69">
-        <v>59.65572357177734</v>
+        <v>59.65571594238281</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>76.1641</v>
       </c>
       <c r="F70">
-        <v>77.04634857177734</v>
+        <v>77.04634094238281</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>27.7657</v>
       </c>
       <c r="F74">
-        <v>26.10885429382324</v>
+        <v>26.10885238647461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>44.07515716552734</v>
+        <v>44.07516479492188</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>39.494</v>
       </c>
       <c r="F85">
-        <v>59.03687286376953</v>
+        <v>59.03688049316406</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>71.9828</v>
       </c>
       <c r="F88">
-        <v>72.43978881835938</v>
+        <v>72.43978118896484</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>78.212</v>
       </c>
       <c r="F99">
-        <v>79.80027770996094</v>
+        <v>79.80028533935547</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>79.904</v>
       </c>
       <c r="F100">
-        <v>75.92304992675781</v>
+        <v>75.92304229736328</v>
       </c>
     </row>
     <row r="101" spans="1:6">
